--- a/data/trans_camb/P18_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,53</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,14</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,52</t>
+          <t>-14,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,82</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,71</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,45</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,27</t>
+          <t>-15,49</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-13,62</t>
+          <t>-16,91</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-16,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-15,14</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-11,93</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-15,02</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-15,46</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -11,14</t>
+          <t>-36,3; -4,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -7,37</t>
+          <t>-32,33; -0,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,72; -11,61</t>
+          <t>-36,77; -4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,63; 77,63</t>
+          <t>-35,57; -4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,53; -6,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -10,13</t>
+          <t>-26,98; -7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,3; 68,92</t>
+          <t>-23,14; -3,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,64; -11,37</t>
+          <t>-24,42; -6,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -9,43</t>
+          <t>-26,48; -7,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -12,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,31; 70,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-25,58; -8,55</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-22,2; -4,63</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-25,5; -8,96</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-26,32; -8,55</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-83,43%</t>
+          <t>-79,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,33%</t>
+          <t>-54,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-83,39%</t>
+          <t>-80,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>337,15%</t>
+          <t>-78,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-60,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-62,0%</t>
+          <t>-61,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>250,36%</t>
+          <t>-53,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-69,35%</t>
+          <t>-60,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-58,04%</t>
+          <t>-65,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-70,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>284,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-68,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-53,65%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-67,57%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-69,57%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,91; -60,95</t>
+          <t>-97,15; -42,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,24; -38,29</t>
+          <t>-84,34; -1,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,06; -68,79</t>
+          <t>-94,3; -54,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>219,18; 499,18</t>
+          <t>-96,69; -38,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,18; -38,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,54; -30,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,29; -45,49</t>
+          <t>-79,9; -29,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>195,72; 328,93</t>
+          <t>-70,01; -18,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-79,01; -54,51</t>
+          <t>-73,93; -33,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-67,65; -44,22</t>
+          <t>-83,03; -35,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-79,94; -58,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>223,44; 343,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-82,46; -46,22</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-70,9; -26,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-80,39; -50,31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-84,14; -46,55</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,66</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,36</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,54</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -4,03</t>
+          <t>-8,72; -1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -2,37</t>
+          <t>-8,55; -1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -2,67</t>
+          <t>-7,39; -0,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,95; 88,61</t>
+          <t>-6,67; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -3,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -4,98</t>
+          <t>-5,9; 3,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,95; 86,27</t>
+          <t>-4,68; 2,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -4,59</t>
+          <t>-7,75; -0,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; -2,94</t>
+          <t>-8,85; -2,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -4,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,29; 86,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; -0,11</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; -0,18</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; -1,29</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; -1,03</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-70,44%</t>
+          <t>-62,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,21%</t>
+          <t>-56,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>-46,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>921,25%</t>
+          <t>-27,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-56,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-71,19%</t>
+          <t>-23,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>760,7%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-62,81%</t>
+          <t>-53,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-47,89%</t>
+          <t>-67,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-65,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>834,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-42,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-35,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-50,25%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-47,45%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,73; -50,1</t>
+          <t>-83,65; -20,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,02; -29,59</t>
+          <t>-76,64; -13,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,09; -32,51</t>
+          <t>-70,86; -1,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>694,27; 1252,64</t>
+          <t>-65,6; 36,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,88; -29,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,62; -15,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,33; -44,33</t>
+          <t>-60,39; 59,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>599,73; 965,6</t>
+          <t>-48,02; 41,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -48,71</t>
+          <t>-77,1; 4,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-61,82; -31,26</t>
+          <t>-85,11; -38,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-74,96; -47,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>700,43; 993,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-66,77; 2,34</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-57,99; -2,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-68,62; -18,46</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-68,26; -12,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91,47</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>90,69</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,23</t>
+          <t>-8,1; 0,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,31</t>
+          <t>-6,77; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -1,9</t>
+          <t>-7,54; -0,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,19; 93,97</t>
+          <t>-8,72; -1,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -1,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -0,96</t>
+          <t>-7,87; -1,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,4; 92,71</t>
+          <t>-4,39; 2,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -0,13</t>
+          <t>-5,73; 0,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,48</t>
+          <t>-7,2; -0,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,37; 92,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; -1,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 1,05</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; -0,74</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; -1,83</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,03%</t>
+          <t>-62,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,42%</t>
+          <t>-44,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-58,06%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-78,48%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-67,37%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,44%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-38,47%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-55,9%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>-64,96%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1270,75%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-68,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-23,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-49,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1266,98%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-49,3%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-29,58%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-56,98%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1268,1%</t>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-24,97%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-48,1%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-66,9%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,0; 59,61</t>
+          <t>-88,79; 36,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 30,47</t>
+          <t>-74,57; 40,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,94; -28,37</t>
+          <t>-83,39; -12,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>874,26; 1888,82</t>
+          <t>-94,2; -24,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,15; -33,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 27,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,56; -14,41</t>
+          <t>-89,66; -23,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>885,91; 1824,28</t>
+          <t>-53,51; 76,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,41; -1,3</t>
+          <t>-67,26; 18,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 8,64</t>
+          <t>-82,8; -5,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-72,05; -34,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>988,89; 1666,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-83,1; -17,72</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-54,04; 26,54</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-68,96; -16,92</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-83,65; -34,79</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,03</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>79,83</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>81,91</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-8,73</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-6,68</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-10,21</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -4,7</t>
+          <t>-11,13; -3,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -3,59</t>
+          <t>-9,71; -1,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -5,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,08; 86,32</t>
+          <t>-11,31; -4,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -6,05</t>
+          <t>-12,67; -6,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>77,19; 82,36</t>
+          <t>-10,69; -2,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -6,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -4,06</t>
+          <t>-15,44; -8,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,19; 83,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; -5,79</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-9,34; -3,73</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; -7,45</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-66,67%</t>
+          <t>-64,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>-50,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-68,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>778,42%</t>
+          <t>-66,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-60,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-62,23%</t>
+          <t>-62,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>605,6%</t>
+          <t>-46,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-63,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-47,47%</t>
+          <t>-81,19%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-65,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>681,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-63,83%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-48,87%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-74,68%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-78,74; -48,15</t>
+          <t>-82,37; -19,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,87; -37,06</t>
+          <t>-71,27; -11,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,97; -57,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>623,97; 936,63</t>
+          <t>-82,79; -39,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,8; -47,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,61; -27,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,26; -50,72</t>
+          <t>-75,82; -46,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>524,48; 719,01</t>
+          <t>-63,99; -18,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-71,68; -52,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-56,3; -36,14</t>
+          <t>-91,28; -57,92</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-71,8; -56,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>607,96; 776,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-74,39; -43,19</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-63,16; -28,74</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-84,1; -58,54</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-7,38</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-6,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,26</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,93</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-7,76</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,58</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-7,95</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-9,46</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-7,57</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-5,79</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-7,62</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-8,22</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; -5,13</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; -3,6</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; -5,15</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; -4,79</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; -5,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; -3,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,13; -5,89</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,59; -7,4</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; -5,97</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; -4,27</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; -6,08</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; -6,72</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-68,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-55,59%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-67,25%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-64,14%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-58,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-42,17%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-60,12%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-71,53%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-62,88%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-48,06%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-63,27%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-68,28%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-80,2; -48,13</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-68,14; -38,32</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-77,28; -52,85</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-76,34; -48,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-68,64; -43,61</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-53,86; -28,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-69,45; -45,72</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-79,91; -60,0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-70,34; -52,39</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-57,19; -37,49</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-70,64; -53,62</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-75,69; -59,93</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
